--- a/Excel/模组任务干员名单20240502用户版.xlsx
+++ b/Excel/模组任务干员名单20240502用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C047075-0B89-4464-9B32-DB2BB2D2A6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426114AD-3A63-43C6-8736-DAAC6A61D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3015" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2790" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="660">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1257,9 +1257,6 @@
     <t>maa://20941</t>
   </si>
   <si>
-    <t>maa://20888</t>
-  </si>
-  <si>
     <t>maa://20866</t>
   </si>
   <si>
@@ -1320,9 +1317,6 @@
     <t>maa://20997</t>
   </si>
   <si>
-    <t>*maa://27376</t>
-  </si>
-  <si>
     <t>maa://20962</t>
   </si>
   <si>
@@ -1449,9 +1443,6 @@
     <t>maa://25136, maa://20886</t>
   </si>
   <si>
-    <t>maa://35841, maa://24472</t>
-  </si>
-  <si>
     <t>*maa://28190, maa://20880</t>
   </si>
   <si>
@@ -1479,9 +1470,6 @@
     <t>maa://20929</t>
   </si>
   <si>
-    <t>maa://31560, maa://20852</t>
-  </si>
-  <si>
     <t>maa://20893</t>
   </si>
   <si>
@@ -1518,18 +1506,9 @@
     <t>maa://35723, maa://20908, *maa://23346</t>
   </si>
   <si>
-    <t>maa://29659, maa://29031</t>
-  </si>
-  <si>
-    <t>maa://31560, maa://20940</t>
-  </si>
-  <si>
     <t>maa://20986</t>
   </si>
   <si>
-    <t>maa://31560, maa://20851</t>
-  </si>
-  <si>
     <t>maa://20949</t>
   </si>
   <si>
@@ -1551,9 +1530,6 @@
     <t>maa://31937, maa://20914, maa://20829</t>
   </si>
   <si>
-    <t>maa://24611</t>
-  </si>
-  <si>
     <t>maa://24491, maa://24493</t>
   </si>
   <si>
@@ -1563,9 +1539,6 @@
     <t>maa://30719</t>
   </si>
   <si>
-    <t>maa://23019, maa://20837</t>
-  </si>
-  <si>
     <t>maa://20856</t>
   </si>
   <si>
@@ -1656,9 +1629,6 @@
     <t>maa://20983</t>
   </si>
   <si>
-    <t>maa://31560, **maa://20968</t>
-  </si>
-  <si>
     <t>maa://28104</t>
   </si>
   <si>
@@ -1698,9 +1668,6 @@
     <t>maa://35854, maa://25760, **maa://20872</t>
   </si>
   <si>
-    <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
-  </si>
-  <si>
     <t>maa://20854</t>
   </si>
   <si>
@@ -1719,9 +1686,6 @@
     <t>maa://20935</t>
   </si>
   <si>
-    <t>maa://28133, maa://28277, *maa://33132, maa://25369</t>
-  </si>
-  <si>
     <t>maa://20956, *maa://20830</t>
   </si>
   <si>
@@ -1770,9 +1734,6 @@
     <t>maa://30714, maa://30675</t>
   </si>
   <si>
-    <t>*maa://32623, maa://34242, *maa://34900, maa://20922</t>
-  </si>
-  <si>
     <t>maa://32999</t>
   </si>
   <si>
@@ -1791,9 +1752,6 @@
     <t>*maa://32202, maa://20867</t>
   </si>
   <si>
-    <t>*maa://30674</t>
-  </si>
-  <si>
     <t>maa://28923, maa://28906</t>
   </si>
   <si>
@@ -1818,9 +1776,6 @@
     <t>maa://30676</t>
   </si>
   <si>
-    <t>maa://31560, maa://20884</t>
-  </si>
-  <si>
     <t>**maa://20883</t>
   </si>
   <si>
@@ -1866,9 +1821,6 @@
     <t>maa://20881</t>
   </si>
   <si>
-    <t>maa://30710, maa://31558, maa://30668</t>
-  </si>
-  <si>
     <t>maa://20902</t>
   </si>
   <si>
@@ -1881,9 +1833,6 @@
     <t>maa://32414, maa://32505</t>
   </si>
   <si>
-    <t>maa://29005, maa://31560</t>
-  </si>
-  <si>
     <t>maa://27939</t>
   </si>
   <si>
@@ -1911,9 +1860,6 @@
     <t>maa://30680</t>
   </si>
   <si>
-    <t>maa://30671, *maa://32410, maa://30669, maa://33671</t>
-  </si>
-  <si>
     <t>maa://32417</t>
   </si>
   <si>
@@ -1935,9 +1881,6 @@
     <t>maa://34865, maa://34717</t>
   </si>
   <si>
-    <t>maa://35996</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
@@ -1974,41 +1917,104 @@
     <t>逻各斯</t>
   </si>
   <si>
-    <t>maa://36644</t>
-  </si>
-  <si>
-    <t>maa://36643</t>
-  </si>
-  <si>
-    <t>maa://25018, maa://25776, *maa://32653, maa://28361, maa://25772, *maa://25161</t>
-  </si>
-  <si>
     <t>maa://34319, maa://29023, maa://23020</t>
   </si>
   <si>
     <t>SV-6</t>
   </si>
   <si>
-    <t>maa://36641</t>
-  </si>
-  <si>
-    <t>maa://34714, *maa://34866</t>
-  </si>
-  <si>
     <t>IW-4</t>
   </si>
   <si>
     <t>**maa://35860</t>
-  </si>
-  <si>
-    <t>maa://36642</t>
-  </si>
-  <si>
-    <t>maa://36645, maa://36841</t>
   </si>
   <si>
     <t>更新日期：2024.05.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*maa://20888</t>
+  </si>
+  <si>
+    <t>maa://36644, maa://36866</t>
+  </si>
+  <si>
+    <t>maa://27376</t>
+  </si>
+  <si>
+    <t>maa://36643, maa://36864</t>
+  </si>
+  <si>
+    <t>*maa://35841, maa://24472</t>
+  </si>
+  <si>
+    <t>*maa://31560, maa://20852</t>
+  </si>
+  <si>
+    <t>maa://25018, maa://32653, maa://28361, maa://25772, maa://25776, *maa://25161</t>
+  </si>
+  <si>
+    <t>maa://29031, maa://29659</t>
+  </si>
+  <si>
+    <t>*maa://31560, maa://20940</t>
+  </si>
+  <si>
+    <t>*maa://31560, maa://20851</t>
+  </si>
+  <si>
+    <t>maa://37484, maa://24611</t>
+  </si>
+  <si>
+    <t>maa://37113, maa://23019, maa://20837</t>
+  </si>
+  <si>
+    <t>maa://36641, maa://36865, maa://37300</t>
+  </si>
+  <si>
+    <t>*maa://31560, **maa://20968</t>
+  </si>
+  <si>
+    <t>*maa://34866, maa://34714</t>
+  </si>
+  <si>
+    <t>maa://27823, *maa://28190, *maa://20906, maa://22894</t>
+  </si>
+  <si>
+    <t>maa://28133, maa://28277, maa://25369, **maa://33132</t>
+  </si>
+  <si>
+    <t>*maa://32623, *maa://34900, maa://34242, maa://20922</t>
+  </si>
+  <si>
+    <t>maa://30674</t>
+  </si>
+  <si>
+    <t>*maa://31560, maa://20884</t>
+  </si>
+  <si>
+    <t>maa://36845, maa://30710, maa://31558, maa://30668</t>
+  </si>
+  <si>
+    <t>maa://36642, maa://36867</t>
+  </si>
+  <si>
+    <t>maa://29005, *maa://31560</t>
+  </si>
+  <si>
+    <t>**maa://34205</t>
+  </si>
+  <si>
+    <t>maa://37275, maa://30671, *maa://32410, maa://30669, maa://33671</t>
+  </si>
+  <si>
+    <t>maa://36868, maa://35996</t>
+  </si>
+  <si>
+    <t>maa://36646, maa://36845</t>
+  </si>
+  <si>
+    <t>maa://36645, maa://36841, maa://37484</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2371,7 @@
   <dimension ref="A1:AF298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A2" sqref="A2:D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2489,7 @@
         <v>401</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2662,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>407</v>
+        <v>632</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -2691,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -2720,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -2740,7 +2746,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>343</v>
@@ -2807,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -2836,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -2894,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -2923,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -2952,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -2981,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3010,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3039,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3068,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3126,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3155,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3184,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3213,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3262,16 +3268,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3285,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3299,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3313,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>428</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3355,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3425,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3509,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3551,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3579,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3593,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3621,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3635,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3649,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3663,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3677,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3705,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3719,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,7 +3739,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,21 +3767,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3817,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3845,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3859,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>471</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4013,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4027,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4041,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4055,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4097,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4111,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4125,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4139,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>481</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4153,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4167,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4209,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4237,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4251,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4307,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4321,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4335,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4349,7 +4355,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>494</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4363,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>495</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4377,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>497</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4405,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4500,10 +4506,10 @@
         <v>281</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>505</v>
+        <v>642</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4531,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4556,10 +4562,10 @@
         <v>284</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>509</v>
+        <v>643</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4629,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4668,12 +4674,12 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>360</v>
@@ -4696,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4710,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4724,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -4752,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -4766,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -4780,21 +4786,21 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -4808,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4822,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4850,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,12 +4870,12 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>345</v>
@@ -4906,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4920,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4934,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4948,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4962,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4990,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5004,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5018,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5046,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5088,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5102,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5130,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5144,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5158,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>540</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5172,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5186,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5200,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5214,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5242,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5270,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5284,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5298,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5312,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5326,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5340,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5354,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5368,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5382,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5421,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5435,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5449,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5463,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5477,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5491,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -5505,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5519,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5533,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5558,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5597,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5611,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5625,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5653,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -5667,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5681,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -5709,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -5723,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -5737,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -5765,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -5779,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -5793,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -5807,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -5821,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -5835,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -5849,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -5863,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -5877,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -5891,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -5905,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -5919,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -5933,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -5961,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -5975,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5989,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6003,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6017,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6045,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -6059,7 +6065,7 @@
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6073,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6087,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6101,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6129,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6143,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6157,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6171,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6185,15 +6191,15 @@
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -6213,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6252,7 +6258,7 @@
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -6266,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6280,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6294,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6322,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6336,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6347,10 +6353,10 @@
         <v>388</v>
       </c>
       <c r="C251" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6364,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6378,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6392,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6406,21 +6412,21 @@
         <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6448,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6518,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6532,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6557,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6599,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6627,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6652,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6694,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -6736,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,12 +6767,15 @@
         <v>395</v>
       </c>
       <c r="C281" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>386</v>
@@ -6786,10 +6795,10 @@
         <v>306</v>
       </c>
       <c r="C283" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -6845,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -6859,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -6884,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -6912,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -6951,15 +6960,15 @@
         <v>388</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>343</v>
@@ -6970,27 +6979,30 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C298" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
